--- a/과제/dip-2차 과제 공고/홍길동/홍길동_2차.xlsx
+++ b/과제/dip-2차 과제 공고/홍길동/홍길동_2차.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03FBEBC-DBE8-4879-9AE7-A1398D24C03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D50803-BDD2-47CE-A7E2-868F443FEBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="평가표" sheetId="1" r:id="rId1"/>
@@ -613,19 +613,19 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="72.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="72.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="71.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -645,7 +645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -677,7 +677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -693,7 +693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -709,7 +709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -737,7 +737,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -751,7 +751,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -793,7 +793,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -807,7 +807,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -821,7 +821,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -835,7 +835,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="12"/>
       <c r="B15" s="13" t="s">
         <v>25</v>
@@ -854,7 +854,7 @@
       </c>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -868,7 +868,7 @@
       <c r="E16" s="18"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -882,7 +882,7 @@
       <c r="E17" s="18"/>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A18" s="22"/>
       <c r="B18" s="23" t="s">
         <v>26</v>
